--- a/Result/26-10-24/HKEXstock_26-10-24period60RS90.xlsx
+++ b/Result/26-10-24/HKEXstock_26-10-24period60RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/26-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01AA4EF-5981-BF40-A0F5-AE73CBA0B53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CD0CD-426A-124A-BBCE-A9C30EFFC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +344,20 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +368,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor rgb="FFFFA500"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,12 +410,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -697,7 +725,7 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1188,7 +1216,7 @@
       </c>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B5">
@@ -1281,7 +1309,7 @@
       <c r="AL5" t="s">
         <v>57</v>
       </c>
-      <c r="AM5" t="s">
+      <c r="AM5" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN5" t="s">
@@ -1420,7 +1448,7 @@
       </c>
     </row>
     <row r="7" spans="1:45">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B7">
@@ -1513,7 +1541,7 @@
       <c r="AL7" t="s">
         <v>61</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AM7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN7" t="s">
@@ -1536,7 +1564,7 @@
       </c>
     </row>
     <row r="8" spans="1:45">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B8">
@@ -1629,7 +1657,7 @@
       <c r="AL8" t="s">
         <v>64</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AM8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN8" t="s">
@@ -1768,7 +1796,7 @@
       </c>
     </row>
     <row r="10" spans="1:45">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B10">
@@ -1861,7 +1889,7 @@
       <c r="AL10" t="s">
         <v>71</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AM10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AN10" t="s">
@@ -2116,7 +2144,7 @@
       </c>
     </row>
     <row r="13" spans="1:45">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B13">
@@ -2209,7 +2237,7 @@
       <c r="AL13" t="s">
         <v>82</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AM13" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN13" t="s">
@@ -2580,7 +2608,7 @@
       </c>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B17">
@@ -2649,7 +2677,7 @@
       <c r="X17">
         <v>8.3333333333333321</v>
       </c>
-      <c r="Y17" t="b">
+      <c r="Y17" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Z17" t="b">
@@ -2673,7 +2701,7 @@
       <c r="AL17" t="s">
         <v>61</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AM17" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN17" t="s">
@@ -2696,7 +2724,7 @@
       </c>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B18">
@@ -2723,7 +2751,7 @@
       <c r="I18">
         <v>2.1800000000000002</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>-1.0012407987449301</v>
       </c>
       <c r="K18">
@@ -2765,7 +2793,7 @@
       <c r="X18">
         <v>1.1111111111111109</v>
       </c>
-      <c r="Y18" t="b">
+      <c r="Y18" s="4" t="b">
         <v>1</v>
       </c>
       <c r="Z18" t="b">
@@ -2789,7 +2817,7 @@
       <c r="AL18" t="s">
         <v>61</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AM18" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN18" t="s">
@@ -2928,7 +2956,7 @@
       </c>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B20">
@@ -2955,13 +2983,13 @@
       <c r="I20">
         <v>22.62</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>3.5514096707619331</v>
       </c>
       <c r="K20">
         <v>13.19</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <v>3.555697274765381</v>
       </c>
       <c r="M20">
@@ -3021,7 +3049,7 @@
       <c r="AL20" t="s">
         <v>71</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AM20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="AN20" t="s">

--- a/Result/26-10-24/HKEXstock_26-10-24period60RS90.xlsx
+++ b/Result/26-10-24/HKEXstock_26-10-24period60RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/26-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427CD0CD-426A-124A-BBCE-A9C30EFFC884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F85D0C-CAE6-FC41-9048-D12970F8AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Result/26-10-24/HKEXstock_26-10-24period60RS90.xlsx
+++ b/Result/26-10-24/HKEXstock_26-10-24period60RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/26-10-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F85D0C-CAE6-FC41-9048-D12970F8AF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B10826-7212-3D40-A311-2F619B8879CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,7 +725,7 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
